--- a/rrd/AppData/ContactDefineTeam.xlsx
+++ b/rrd/AppData/ContactDefineTeam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FEEDF0-E7A7-43B7-9811-9B77713E42C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A93718-D0E2-40AC-A23E-BEB2EEE92DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Keywords" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="56">
   <si>
     <t>Team</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Last Name,(LastName)</t>
   </si>
   <si>
-    <t>Contact_TC02</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -165,12 +162,6 @@
     <t>Title 1</t>
   </si>
   <si>
-    <t>Contact_Test</t>
-  </si>
-  <si>
-    <t>Test_QA</t>
-  </si>
-  <si>
     <t>Title,(Title)</t>
   </si>
   <si>
@@ -180,13 +171,31 @@
     <t>New York</t>
   </si>
   <si>
-    <t>Level,(Level__c)</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Primary;Secondary</t>
+    <t>Mailing Zip/Postal Code,(MailingPostalCode)</t>
+  </si>
+  <si>
+    <t>TestContact_TC04</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Salutation,(salutation)</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Mr. ; Ms.</t>
+  </si>
+  <si>
+    <t>QA</t>
   </si>
 </sst>
 </file>
@@ -244,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +272,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -277,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -290,6 +311,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2597716-77C9-4C48-B973-F12F526D1F70}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -809,7 +834,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -839,13 +864,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D21733-59F0-4F59-AC9D-74421EE7669D}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -875,13 +900,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>36</v>
+      <c r="C2" s="10">
+        <v>201305</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
@@ -910,14 +935,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>40</v>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>20</v>
@@ -935,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>21</v>
@@ -947,13 +972,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
@@ -964,14 +989,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>23</v>
@@ -989,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>24</v>
@@ -1001,13 +1026,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>24</v>
@@ -1018,14 +1043,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>40</v>
+      <c r="C10" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>24</v>
@@ -1037,13 +1062,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>25</v>
@@ -1055,13 +1080,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>26</v>
@@ -1073,13 +1098,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>27</v>
@@ -1091,13 +1116,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>28</v>
@@ -1118,7 +1143,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rrd/AppData/ContactDefineTeam.xlsx
+++ b/rrd/AppData/ContactDefineTeam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A93718-D0E2-40AC-A23E-BEB2EEE92DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF8854-6B54-4CC9-824F-5245767D79E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Keywords" sheetId="9" r:id="rId1"/>
@@ -598,7 +598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864DC7FA-00B6-4F65-8286-6CB35070DC91}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -674,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2597716-77C9-4C48-B973-F12F526D1F70}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +867,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD03337-44F0-433F-900A-78C2F1ADD7F0}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rrd/AppData/ContactDefineTeam.xlsx
+++ b/rrd/AppData/ContactDefineTeam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF8854-6B54-4CC9-824F-5245767D79E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021725B4-72A2-4CB2-89B5-C1E79090CEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +867,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,10 +1437,10 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>28</v>
